--- a/biology/Médecine/Arnold_Adolph_Berthold/Arnold_Adolph_Berthold.xlsx
+++ b/biology/Médecine/Arnold_Adolph_Berthold/Arnold_Adolph_Berthold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Adolph Berthold ou Arnold Adolf Berthold est un médecin, physiologiste et anatomiste allemand, né à Soest le 26 février 1803, mort le 3 janvier 1861 à Göttingen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Göttingen en 1819 et soutient sa thèse sous la direction de Johann Friedrich Blumenbach (1752-1840). Berthold suit les cours d’anatomie de Konrad Johann Martin Langenbeck (1776-1851) et d’obstétrique de Friedrich Benjamin Osiander (1759-1822). Il visite de nombreuses universités d’Allemagne comme celle d'Iéna où il rencontre Lorenz Oken (1779-1851) et Dietrich Georg von Kieser (de) (1779-1862). Il visite l’hôpital de la Charité de Berlin où il fréquente Christoph Wilhelm Hufeland (1762-1836) et Carl Asmund Rudolphi (1771-1832), chefs de l’école de Naturphilosophie. Il séjourne aussi à Paris où il suit les cours de Georges Cuvier (1769-1832) et d’Étienne Geoffroy Saint-Hilaire (1772-1844).
 Berthold devient Privatdozent en 1825 et commence à enseigner la physiologie à l'université de Göttingen où il fera toute sa carrière. Il fait paraître un manuel de biologie en 1829 sous le titre de Lehrbuch der Physiologie des Menschen und der Thiere en deux volumes et qui connaîtra plusieurs rééditions et en 1831 Beiträge zur Anatomie, Zootomie und Physiologie. Il est professeur extraordinaire en 1835 et ordinaire en 1836 de zoologie et d’anatomie comparée.
